--- a/output/consolidated/pax/consolidated_pax_1757016901802.xlsx
+++ b/output/consolidated/pax/consolidated_pax_1757016901802.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Cruise Line:</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>PAX ON TOUR</t>
+  </si>
+  <si>
+    <t>08/05/2025</t>
+  </si>
+  <si>
+    <t>Ship A</t>
   </si>
   <si>
     <t>Catamaran Sail &amp; Snorkel</t>
@@ -248,7 +254,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -277,15 +283,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -296,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -316,16 +313,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -334,33 +324,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -775,63 +758,63 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="14"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="13"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="14"/>
-    </row>
-    <row r="4" ht="24.6" customHeight="1" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="Q3" s="13"/>
+    </row>
+    <row r="4" ht="24.6" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>45785</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="19"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" ht="24.6" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="19"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" ht="24.6" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -840,23 +823,23 @@
       <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="20" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="19"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -865,134 +848,159 @@
       <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="19"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" ht="54" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="O8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="23" t="s">
+      <c r="P8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="28" t="s">
+      <c r="Q8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="R8" s="23" t="s">
+      <c r="R8" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="22"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="30"/>
+    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="24">
+        <v>48</v>
+      </c>
+      <c r="E9" s="9">
+        <v>150</v>
+      </c>
+      <c r="F9" s="9">
+        <v>45</v>
+      </c>
+      <c r="G9" s="9">
+        <v>135</v>
+      </c>
+      <c r="H9" s="9">
+        <v>78</v>
+      </c>
+      <c r="I9" s="9">
+        <v>135</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="25"/>
+      <c r="BT9">
+        <v>3315</v>
+      </c>
+      <c r="BU9">
+        <v>171</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="31">
+        <v>37</v>
+      </c>
+      <c r="B10" s="14">
         <v>0.3958333333321207</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="13">
+      <c r="D10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
         <v>50</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="21">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9">
         <f>SUM(K10:M10)</f>
         <v>16</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="9">
         <v>10</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="9">
         <v>5</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="9">
         <v>1</v>
       </c>
-      <c r="N10" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="30">
+      <c r="N10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="25">
         <v>350</v>
       </c>
       <c r="R10" s="1">
@@ -1000,65 +1008,90 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="31"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="21">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="24">
+        <v>48</v>
+      </c>
+      <c r="E11" s="9">
+        <v>150</v>
+      </c>
+      <c r="F11" s="26">
+        <v>45</v>
+      </c>
+      <c r="G11" s="9">
+        <v>135</v>
+      </c>
+      <c r="H11" s="9">
+        <v>78</v>
+      </c>
+      <c r="I11" s="9">
+        <v>135</v>
+      </c>
+      <c r="J11" s="9">
         <f t="shared" ref="J11:J14" si="0">SUM(K11:M11)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="30"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="25"/>
       <c r="R11" s="1">
         <f t="shared" ref="R11:R14" si="1">J11</f>
         <v>0</v>
       </c>
+      <c r="BT11">
+        <v>3315</v>
+      </c>
+      <c r="BU11">
+        <v>171</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="31">
+        <v>41</v>
+      </c>
+      <c r="B12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="13">
+      <c r="D12" s="24"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
         <v>45</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="21">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="9">
         <v>12</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="9">
         <v>2</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="9">
         <v>1</v>
       </c>
-      <c r="N12" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="30">
+      <c r="N12" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="26"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="25">
         <v>355</v>
       </c>
       <c r="R12" s="1">
@@ -1067,25 +1100,25 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="31"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="21">
+      <c r="A13" s="9"/>
+      <c r="B13" s="14"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="30"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="25"/>
       <c r="R13" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1093,38 +1126,38 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="31">
+        <v>43</v>
+      </c>
+      <c r="B14" s="14">
         <v>0.96875</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="13">
+      <c r="D14" s="24"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
         <v>45</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="21">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="9">
         <v>23</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="9">
         <v>3</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="9">
         <v>0</v>
       </c>
-      <c r="N14" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="O14" s="32"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="30">
+      <c r="N14" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="26"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="25">
         <v>400</v>
       </c>
       <c r="R14" s="1">
@@ -1134,538 +1167,538 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
-      <c r="B15" s="31"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="30"/>
+      <c r="B15" s="14"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="25"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="31"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="30"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="14"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="25"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="31"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="30"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="14"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="25"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="31"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="30"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="14"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="25"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="31"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="30"/>
+      <c r="B19" s="14"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="25"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="31"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="30"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="14"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="25"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="31"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="30"/>
+      <c r="B21" s="14"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="25"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="31"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="30"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="14"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="31"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="30"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="14"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="25"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="31"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="30"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="14"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="25"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
-      <c r="B25" s="31"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="30"/>
+      <c r="B25" s="14"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="25"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="31"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="30"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="14"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="31"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="30"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="14"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="25"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
-      <c r="B28" s="31"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="30"/>
+      <c r="B28" s="14"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="25"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="31"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="30"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="14"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="25"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="31"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="30"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="14"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="25"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="31"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="30"/>
+      <c r="B31" s="14"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="25"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="22"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="33"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="30"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="27"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="25"/>
     </row>
     <row r="33" ht="14.4" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="22"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="30"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="25"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="22"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="21">
+      <c r="B34" s="9"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="9">
         <f>+SUM(J10:J32)</f>
         <v>57</v>
       </c>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="30"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="25"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="22"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="30"/>
+      <c r="B35" s="9"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="25"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="30"/>
+      <c r="B36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="25"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="34"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="30"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="28"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="25"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="22"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="30"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="25"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="30"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="25"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="30"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="25"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="30"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="25"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="30"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="25"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="C44" s="35"/>
-      <c r="H44" s="36"/>
+      <c r="C44" s="29"/>
+      <c r="H44" s="30"/>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="35"/>
-      <c r="H45" s="36"/>
+      <c r="C45" s="29"/>
+      <c r="H45" s="30"/>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="35"/>
-      <c r="H46" s="36"/>
+      <c r="C46" s="29"/>
+      <c r="H46" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
